--- a/data/income_statement/2digits/size/85_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/85_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>85-Education</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>85-Education</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,296 +841,336 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1656913.38386</v>
+        <v>1471223.71572</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1979057.06252</v>
+        <v>1730169.50122</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2295721.46063</v>
+        <v>1986246.73258</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3068281.72505</v>
+        <v>2686586.56503</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3563056.02715</v>
+        <v>3419877.078939999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4272406.30408</v>
+        <v>4055381.33378</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4769212.85546</v>
+        <v>4607892.17089</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3126266.63014</v>
+        <v>5161396.05509</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>7224700.30161</v>
+        <v>6726074.097030001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>8070598.006659999</v>
+        <v>7798377.030479999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>9730490.659629999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>9665213.70675</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>10318945.77</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1625857.25437</v>
+        <v>1453860.80168</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1939176.43715</v>
+        <v>1706586.32587</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2246532.88085</v>
+        <v>1959423.91028</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3000950.34804</v>
+        <v>2642567.95019</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3457794.62878</v>
+        <v>3338075.74739</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4113749.23122</v>
+        <v>3920168.54439</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4677170.533340001</v>
+        <v>4523061.06109</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3062395.39087</v>
+        <v>5069340.684479999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7042314.59673</v>
+        <v>6554859.17875</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7832833.181489999</v>
+        <v>7561379.077</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>9415292.895770002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9350440.547729999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>10028296.21</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>12125.52848</v>
+        <v>528.2538900000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>14561.75382</v>
+        <v>419.43211</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>14329.61684</v>
+        <v>826.9475</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>17669.27758</v>
+        <v>5216.054679999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>41037.18684999999</v>
+        <v>24242.58489</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>61641.58873</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3544.80445</v>
+        <v>3503.51001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3505.75246</v>
+        <v>3504.36246</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>16274.20357</v>
+        <v>16160.94257</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>38303.06036</v>
+        <v>38303.06036000001</v>
       </c>
       <c r="M7" s="48" t="n">
         <v>27705.95887</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>8829.096</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>18930.60101</v>
+        <v>16834.66015</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>25318.87155</v>
+        <v>23163.74324</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>34858.96294</v>
+        <v>25995.8748</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>49662.09943000001</v>
+        <v>38802.56015999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>64224.21152</v>
+        <v>57558.74666</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>97015.48413</v>
+        <v>73571.20066</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>88497.51767</v>
+        <v>81327.59979000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>60365.48681000001</v>
+        <v>88551.00815000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>166111.50131</v>
+        <v>155053.97571</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>199461.76481</v>
+        <v>198694.89312</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>287491.8049900001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>287067.20015</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>281820.464</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>35497.47499</v>
+        <v>26750.9058</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>42000.70740000001</v>
+        <v>33376.97919999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>59947.52743</v>
+        <v>52858.15659</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>90381.14488000001</v>
+        <v>76890.20706999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>102256.17379</v>
+        <v>101735.84728</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>107238.48656</v>
+        <v>91933.97625000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>192082.5005</v>
+        <v>190329.56762</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>71094.58670999999</v>
+        <v>225980.53791</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>312641.19373</v>
+        <v>296798.60946</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>394140.63642</v>
+        <v>385893.39991</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>551552.7259399999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>541928.04708</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>740759.049</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3440.866060000001</v>
+        <v>3247.99092</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4427.9422</v>
+        <v>3862.44967</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>5956.273939999999</v>
+        <v>5508.28161</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>6341.5121</v>
+        <v>5921.39597</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>9796.517879999999</v>
+        <v>9276.740950000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>15958.67153</v>
+        <v>15316.72996</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>22208.99212</v>
+        <v>21872.23899</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>19194.21606</v>
+        <v>26730.738</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>41502.50349</v>
+        <v>40260.11214</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>39448.73886</v>
+        <v>39329.63006</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>76494.90044</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>66870.22158000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>135998.641</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>27223.7554</v>
+        <v>18670.06135</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>31977.72412</v>
+        <v>26807.81927</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>46761.51425</v>
+        <v>40144.13574000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>74025.46811</v>
+        <v>60954.64643</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>83232.55531</v>
+        <v>83232.00573</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>78634.43440000001</v>
+        <v>64000.90566</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>151980.45232</v>
+        <v>150579.24257</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>46204.42608</v>
+        <v>173793.16867</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>238149.58162</v>
+        <v>223549.3887</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>313266.67052</v>
+        <v>305138.54281</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>425293.50952</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>542084.9449999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>4832.85353</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>5595.04108</v>
+        <v>2706.71026</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>7229.73924</v>
+        <v>7205.73924</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>10014.16467</v>
@@ -1238,13 +1179,13 @@
         <v>9227.1006</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>12645.38063</v>
+        <v>12616.34063</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>17893.05606</v>
+        <v>17878.08606</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5695.94457</v>
+        <v>25456.63124</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>32989.10862</v>
@@ -1255,233 +1196,263 @@
       <c r="M12" s="48" t="n">
         <v>49764.31598</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>62675.463</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1621415.90887</v>
+        <v>1444472.80992</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1937056.35512</v>
+        <v>1696792.52202</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2235773.9332</v>
+        <v>1933388.57599</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2977900.58017</v>
+        <v>2609696.35796</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3460799.85336</v>
+        <v>3318141.231660001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4165167.81752</v>
+        <v>3963447.35753</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4577130.354959999</v>
+        <v>4417562.603270001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3055172.04343</v>
+        <v>4935415.51718</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>6912059.10788</v>
+        <v>6429275.48757</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7676457.37024</v>
+        <v>7412483.630570001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>9178937.933689998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9123285.659669999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9578186.721000001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1329972.77579</v>
+        <v>1207052.49843</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1556954.21248</v>
+        <v>1390661.9606</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1807168.41445</v>
+        <v>1590807.47291</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2426887.57946</v>
+        <v>2174656.12051</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2870040.07748</v>
+        <v>2785369.75631</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3438804.74915</v>
+        <v>3327673.71233</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3777343.04934</v>
+        <v>3708876.02709</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2533289.64953</v>
+        <v>4066669.77059</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>5557242.621069999</v>
+        <v>5236459.787810001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>6696963.329</v>
+        <v>6474172.2308</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>8112529.362690001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8104645.086979999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>7888499.187</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4993.17176</v>
+        <v>3388.59728</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>23088.88874</v>
+        <v>16786.45856</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>59504.94578</v>
+        <v>53791.6307</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>29158.64834</v>
+        <v>12372.62199</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>35150.49671</v>
+        <v>27105.23556</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>23612.95099</v>
+        <v>15242.59359</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>35675.88737</v>
+        <v>34446.78167</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>13621.28974</v>
+        <v>14026.77929</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>46445.75544</v>
+        <v>14866.7113</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>79663.68545</v>
+        <v>65014.33083</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>111873.71139</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>164757.147</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>21717.39551</v>
+        <v>20043.82887</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>50771.3007</v>
+        <v>46186.89023</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>24391.01871</v>
+        <v>21539.6348</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>65708.53456</v>
+        <v>51634.62492</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>96753.22688</v>
+        <v>92662.45859000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>166801.16331</v>
+        <v>163050.87936</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>81089.26145000001</v>
+        <v>79419.72985999999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>67983.70321000001</v>
+        <v>111230.4034</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>186490.58659</v>
+        <v>181258.60008</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>211599.90346</v>
+        <v>205878.07111</v>
       </c>
       <c r="M16" s="48" t="n">
         <v>566376.7649600001</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>567907.894</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1302479.3581</v>
+        <v>1183076.72768</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1482210.8116</v>
+        <v>1327021.54695</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1721987.17067</v>
+        <v>1514674.82674</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2331321.40961</v>
+        <v>2110466.31708</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2737593.56843</v>
+        <v>2665059.2767</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3247284.92222</v>
+        <v>3148578.5948</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3656158.70912</v>
+        <v>3592234.4549</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2431579.05339</v>
+        <v>3925603.607640001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5301626.002299999</v>
+        <v>5023681.83301</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>6394620.43608</v>
+        <v>6192200.52485</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>7425164.68394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7417280.40823</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>7121891.444</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>782.8504199999999</v>
+        <v>543.3446</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>883.2114399999999</v>
+        <v>667.06486</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1285.27929</v>
+        <v>801.3806699999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>698.98695</v>
+        <v>182.55652</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>542.7854599999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1105.71263</v>
+        <v>801.64458</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>4419.1914</v>
+        <v>2775.06066</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>20105.60319</v>
+        <v>15808.98026</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>22680.27674</v>
+        <v>16652.64342</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>11079.30401</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>9114.2024</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>33942.702</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>291443.13308</v>
+        <v>237420.31149</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>380102.14264</v>
+        <v>306130.56142</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>428605.51875</v>
+        <v>342581.10308</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>551013.0007100001</v>
+        <v>435040.2374500001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>590759.77588</v>
+        <v>532771.4753500001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>726363.06837</v>
+        <v>635773.6452</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>799787.30562</v>
+        <v>708686.5761800001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>521882.3939</v>
+        <v>868745.74659</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1354816.48681</v>
+        <v>1192815.69976</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>979494.04124</v>
+        <v>938311.3997700001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1066408.571</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1018640.57269</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1689687.534</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>183632.43371</v>
+        <v>158292.69841</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>221600.6896</v>
+        <v>183255.52041</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>286778.06801</v>
+        <v>227880.08561</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>365462.15015</v>
+        <v>294344.66204</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>412663.49724</v>
+        <v>385293.38693</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>552050.1031599999</v>
+        <v>487193.75647</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>605655.17709</v>
+        <v>545771.1480200001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>378438.72591</v>
+        <v>598119.92021</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>865945.52136</v>
+        <v>776355.93467</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>925650.72857</v>
+        <v>890019.7241500001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1113595.83409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1105145.51684</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1007357.416</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>282.11345</v>
@@ -1580,7 +1566,7 @@
         <v>408.59074</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>871.8653099999999</v>
+        <v>868.23308</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>481.77862</v>
@@ -1598,7 +1584,7 @@
         <v>2375.3297</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>4324.65629</v>
+        <v>4219.048589999999</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>4506.29159</v>
@@ -1606,179 +1592,204 @@
       <c r="M21" s="48" t="n">
         <v>33126.80704</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>247.436</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>18637.84847</v>
+        <v>17751.92246</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>32244.24006</v>
+        <v>28460.66735</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>32145.03879</v>
+        <v>28631.04315</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>50412.17342</v>
+        <v>42185.35674</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>63344.55408000001</v>
+        <v>58369.56137</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>115281.93981</v>
+        <v>103371.01857</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>112198.64861</v>
+        <v>105380.28098</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>54966.78403</v>
+        <v>80733.76635000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>129579.56568</v>
+        <v>119438.83325</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>168284.22927</v>
+        <v>166995.75266</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>169490.20461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>170232.00347</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>127602.079</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>164712.47179</v>
+        <v>140258.6625</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>188947.8588</v>
+        <v>154386.26232</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>253761.16391</v>
+        <v>198380.80938</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>314568.19811</v>
+        <v>251677.52668</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>348888.81011</v>
+        <v>326493.69251</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>435975.4380199999</v>
+        <v>383030.01257</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>491375.02391</v>
+        <v>438309.36247</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>321096.61218</v>
+        <v>515010.82416</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>732041.2993900001</v>
+        <v>652698.0528300001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>752860.20771</v>
+        <v>718517.6799000001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>910978.82244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>901786.7063300001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>879507.901</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>107810.69937</v>
+        <v>79127.61308</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>158501.45304</v>
+        <v>122875.04101</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>141827.45074</v>
+        <v>114701.01747</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>185550.85056</v>
+        <v>140695.57541</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>178096.27864</v>
+        <v>147478.08842</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>174312.96521</v>
+        <v>148579.88873</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>194132.12853</v>
+        <v>162915.42816</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>143443.66799</v>
+        <v>270625.82638</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>488870.96545</v>
+        <v>416459.7650900001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>53843.31267</v>
+        <v>48291.67561999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-47187.26309000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-86504.94415000002</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>682330.118</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>77264.72931</v>
+        <v>60506.42210000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>70402.21021999999</v>
+        <v>53849.12681</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>107650.6877</v>
+        <v>68681.85558</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>112159.88715</v>
+        <v>79229.17349</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>114590.26951</v>
+        <v>96024.98859000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>157555.35278</v>
+        <v>132086.02782</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>218622.49407</v>
+        <v>178441.87495</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>182720.00266</v>
+        <v>229710.09655</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>422604.12544</v>
+        <v>319984.83299</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>527394.1581</v>
+        <v>464266.54289</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>702381.32391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>670711.64116</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>594792.3810000001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>492.97506</v>
+        <v>474.94196</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>394.19844</v>
+        <v>361.83252</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1648.26206</v>
+        <v>1604.98264</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1584.76076</v>
+        <v>1530.66149</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>590.10715</v>
@@ -1787,13 +1798,13 @@
         <v>7697.031720000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>3445.04783</v>
+        <v>666.08933</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>15535.88987</v>
+        <v>3724.20167</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3387.65115</v>
+        <v>3277.37415</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>1213.27192</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>3925.055440000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>13201.667</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1820,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>8799.75748</v>
+        <v>4103.17088</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>5497.6776</v>
+        <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>6006.624650000001</v>
+        <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>6474.43412</v>
+        <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>7060.449610000001</v>
+        <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>31191.71542</v>
+        <v>26028.42105</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>23442.8025</v>
+        <v>18342.3067</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>28874.15798</v>
+        <v>21543.94147</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>39792.17975000001</v>
+        <v>27522.08181</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>31936.68922</v>
+        <v>28933.25905</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>50266.42915</v>
+        <v>39763.84649</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>62073.98378</v>
+        <v>47664.60885999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>40071.35717</v>
+        <v>67809.43206000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>140174.00209</v>
+        <v>106967.26311</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>163705.88939</v>
+        <v>149645.65308</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>268665.64994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>242991.58645</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>171523.723</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>75.96898</v>
@@ -1895,10 +1921,10 @@
         <v>147.85832</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>584.2312599999999</v>
+        <v>494.76138</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>84.56180999999999</v>
+        <v>84.40841</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>222.0612</v>
@@ -1907,7 +1933,7 @@
         <v>1090.93081</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1293.26167</v>
+        <v>1293.26113</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>4143.97712</v>
@@ -1918,128 +1944,148 @@
       <c r="M29" s="48" t="n">
         <v>20759.21558</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>16202.816</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>2642.03124</v>
+        <v>2352.64077</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3430.06121</v>
+        <v>3310.76975</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>4916.88996</v>
+        <v>3156.93122</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>4638.92477</v>
+        <v>3900.68243</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4777.41241</v>
+        <v>4741.57216</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>8317.21645</v>
+        <v>8148.07395</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>11211.40966</v>
+        <v>10605.2497</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>7219.06476</v>
+        <v>8647.191919999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>13581.53418</v>
+        <v>12575.90781</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>13658.18207</v>
+        <v>11418.73806</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>14794.77907</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>14773.70907</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>19235.91</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>2737.30031</v>
+        <v>2561.64577</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1618.19242</v>
+        <v>1457.58633</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1562.41625</v>
+        <v>1395.81594</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2049.5816</v>
+        <v>1872.1767</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1960.59655</v>
+        <v>1419.36506</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2388.53304</v>
+        <v>2327.13681</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4634.652579999999</v>
+        <v>4599.40546</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2276.64157</v>
+        <v>5545.14506</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5101.421590000001</v>
+        <v>4865.565769999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>8421.516009999999</v>
+        <v>7776.732440000001</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>14357.11443</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>21108.995</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>20247.10697</v>
+        <v>11131.93404</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>12533.92637</v>
+        <v>5305.71681</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>17913.01116</v>
+        <v>8701.101289999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>21393.39118</v>
+        <v>9184.339960000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>13246.09856</v>
+        <v>6393.41537</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>29396.04869</v>
+        <v>21103.92147</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>60121.31964</v>
+        <v>43411.18182</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>25649.39493</v>
+        <v>39226.59522</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>133087.43117</v>
+        <v>76136.96320999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>187420.97355</v>
+        <v>156839.07641</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>224302.90223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>222337.65345</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>217753.379</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>125.06441</v>
@@ -2051,7 +2097,7 @@
         <v>20.97954</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>111.59948</v>
+        <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>0</v>
@@ -2069,16 +2115,21 @@
         <v>359.20882</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>8158.23391</v>
+        <v>4.8757</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>0.03664</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>19752.56692</v>
+        <v>17755.80512</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>28712.8094</v>
+        <v>24800.69482</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>50536.76126000001</v>
+        <v>30079.89399</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>42005.21835</v>
+        <v>34724.46972</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>53195.04633</v>
+        <v>49759.69051000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>53617.64036</v>
+        <v>52671.24161</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>69829.41873999999</v>
+        <v>70195.30259000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>84083.88364</v>
+        <v>103348.19456</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>115707.94971</v>
+        <v>111658.073</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>144325.25489</v>
+        <v>136877.35892</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>155576.57058</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>151567.2701</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>135765.891</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>42991.9529</v>
+        <v>29888.09061</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>24305.93508</v>
+        <v>18393.86455</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>38194.15669</v>
+        <v>20887.61159</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>36147.65948</v>
+        <v>22350.8657</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>33516.51433000001</v>
+        <v>17626.31603</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>58805.32884</v>
+        <v>47313.97045</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>92197.47481999999</v>
+        <v>71513.4768</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>179919.85232</v>
+        <v>107277.61276</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>295020.987</v>
+        <v>196511.52332</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>202775.42045</v>
+        <v>163960.3587</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>313637.24174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>307545.51899</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>231039.617</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>385.24189</v>
@@ -2204,13 +2270,13 @@
         <v>1329.47617</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>568.4574</v>
+        <v>554.2034100000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1019.28189</v>
+        <v>952.7126900000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>761.76859</v>
+        <v>761.21726</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>1179.06283</v>
@@ -2219,85 +2285,95 @@
         <v>548.9886799999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>240.68068</v>
+        <v>889.69202</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>596.75663</v>
+        <v>534.09167</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>799.01503</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>27773.67884</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>27774.33493</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>57740.783</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>8701.26014</v>
+        <v>8035.53287</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>11719.20126</v>
+        <v>9988.13161</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>10381.21387</v>
+        <v>9855.13249</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>12841.91335</v>
+        <v>11047.53278</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>9019.19428</v>
+        <v>8450.37232</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>21746.5027</v>
+        <v>20948.35046</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>28733.72709</v>
+        <v>26946.90827</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>22203.39667</v>
+        <v>30238.71347</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>47733.36844</v>
+        <v>37950.17908</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>37265.08019</v>
+        <v>30052.09206</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>58246.49679</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>58244.88459</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>47112.94</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>451.61338</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>121.40574</v>
+        <v>117.04112</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>348.6381999999999</v>
+        <v>348.29918</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>325.29609</v>
+        <v>324.8485899999999</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>303.47149</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>212.52376</v>
+        <v>212.0199</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>223.5525</v>
+        <v>144.87202</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>95.78229</v>
+        <v>204.86086</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>83.50194999999999</v>
@@ -2308,62 +2384,72 @@
       <c r="M39" s="48" t="n">
         <v>61.57721000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1409.064</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>23273.89617</v>
+        <v>10922.23916</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>9271.264789999999</v>
+        <v>5199.28232</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>25594.52252</v>
+        <v>8943.930829999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>20514.9491</v>
+        <v>8699.22759</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>21489.35413</v>
+        <v>6168.52912</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>29841.26489</v>
+        <v>19444.5819</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>38746.2913</v>
+        <v>23586.53363</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>123819.57638</v>
+        <v>44305.55397</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>207364.14748</v>
+        <v>123191.18756</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>130803.40599</v>
+        <v>102823.33966</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>196780.74645</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>195502.9389</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>102818.7</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>185.48607</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>125.57879</v>
+        <v>20.97954</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0.19245</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>118.58687</v>
+        <v>6.98739</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>149.38185</v>
@@ -2375,22 +2461,27 @@
         <v>59.09858</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>33.22297</v>
+        <v>385.94586</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>950.10537</v>
+        <v>0.05769</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>757.8339999999999</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,374 +2516,424 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>9994.455250000003</v>
+        <v>9907.97724</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1739.00833</v>
+        <v>1738.95379</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1301.13225</v>
+        <v>1185.85323</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1327.63218</v>
+        <v>1319.55666</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>1793.34399</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5627.06869</v>
+        <v>5331.049390000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>23885.81667</v>
+        <v>20227.07562</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>33527.19332999999</v>
+        <v>31252.84658</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>39243.21249999999</v>
+        <v>34752.56306</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>32369.30231</v>
+        <v>29697.3427</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>30774.74245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>25961.78336</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>21200.296</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>42990.3366</v>
+        <v>35451.58241</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>36610.00851000001</v>
+        <v>25940.70933</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>48574.41640000001</v>
+        <v>30520.90472</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>53375.5489</v>
+        <v>42884.72949000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>82017.12947</v>
+        <v>71971.1943</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>113253.58976</v>
+        <v>92383.2153</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>159460.63443</v>
+        <v>151279.12238</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>81801.03713</v>
+        <v>144618.52161</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>322382.40488</v>
+        <v>271513.74904</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>518123.71664</v>
+        <v>424699.14975</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>605138.8442199999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>556424.35095</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>493048.974</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>36432.55013</v>
+        <v>30395.65075</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>30711.3354</v>
+        <v>22463.83324</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>34754.123</v>
+        <v>27396.68694</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>47568.28735</v>
+        <v>39684.26132</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>63085.22704999999</v>
+        <v>53285.38002999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>96712.99594999998</v>
+        <v>75536.90867999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>134218.02027</v>
+        <v>119528.25281</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>63920.99698999999</v>
+        <v>124152.50027</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>250012.32591</v>
+        <v>206577.64703</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>341224.6126000001</v>
+        <v>307667.00942</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>493652.1975900001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>480605.65725</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>408590.33</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>6557.78647</v>
+        <v>5055.931659999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>5898.673110000001</v>
+        <v>3476.87609</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>13820.2934</v>
+        <v>3124.21778</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>5807.26155</v>
+        <v>3200.46817</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>18931.90242</v>
+        <v>18685.81427</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>16540.59381</v>
+        <v>16846.30662</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>25242.61416</v>
+        <v>31750.86957</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>17880.04014</v>
+        <v>20466.02134</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>72370.07897</v>
+        <v>64936.10201</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>176899.10404</v>
+        <v>117032.14033</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>111486.64663</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>75818.6937</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>84458.644</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>99093.13918</v>
+        <v>74294.36215999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>167987.71967</v>
+        <v>132389.59394</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>162709.56535</v>
+        <v>131974.35674</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>208187.52933</v>
+        <v>154689.15371</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>177152.90435</v>
+        <v>153905.56668</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>159809.39939</v>
+        <v>140968.7308</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>161096.51335</v>
+        <v>118564.70393</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>64442.7812</v>
+        <v>248439.78856</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>294071.69901</v>
+        <v>268419.32572</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-139661.66632</v>
+        <v>-76101.28994</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-263582.02514</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-279763.17293</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>553033.9080000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>22826.28319</v>
+        <v>22040.20595</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>19567.1968</v>
+        <v>12114.6299</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>35537.31151</v>
+        <v>20909.43306</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>42307.09226</v>
+        <v>29506.18436</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>71664.70885</v>
+        <v>69073.89219</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>155125.64489</v>
+        <v>83713.56092</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>130908.19533</v>
+        <v>82644.60455</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>51636.52323</v>
+        <v>35071.20026999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>130162.5398</v>
+        <v>95987.64508999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>137255.54683</v>
+        <v>128818.2339</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>121053.96018</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>120976.71079</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>192588.852</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>327.9181</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>585.2825800000001</v>
+        <v>145.7907</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>351.3905999999999</v>
+        <v>240.23305</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>176.79787</v>
+        <v>106.77246</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>629.17879</v>
+        <v>538.42246</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>346.73857</v>
+        <v>320.29857</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>428.37821</v>
+        <v>385.39052</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>663.08654</v>
+        <v>57.12562</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1061.28914</v>
+        <v>543.62679</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>798.56882</v>
+        <v>772.9083899999999</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>929.51632</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>2567.451</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>22498.36509</v>
+        <v>21712.28785</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>18981.91422</v>
+        <v>11968.8392</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>35185.92090999999</v>
+        <v>20669.20001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>42130.29439</v>
+        <v>29399.4119</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>71035.53006</v>
+        <v>68535.46973</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>154778.90632</v>
+        <v>83393.26234999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>130479.81712</v>
+        <v>82259.21403</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>50973.43668999999</v>
+        <v>35014.07465</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>129101.25066</v>
+        <v>95444.0183</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>136456.97801</v>
+        <v>128045.32551</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>120124.44386</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>120047.19447</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>190021.401</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>13888.26423</v>
+        <v>12611.42435</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>16398.20854</v>
+        <v>13168.79511</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>116755.57891</v>
+        <v>80701.40152</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>45371.67947</v>
+        <v>36240.73911</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>53626.21560999999</v>
+        <v>52929.73313</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>55023.3449</v>
+        <v>53990.98425</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>97826.53181</v>
+        <v>95680.82071000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>46020.07768</v>
+        <v>49991.74065</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>88684.43501</v>
+        <v>59685.95409000001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>116811.81721</v>
+        <v>115343.96023</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>158854.73187</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>133941.00408</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>127717.915</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>299.6639</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>855.10108</v>
+        <v>159.2247</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1663.45803</v>
+        <v>28.0956</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>308.85085</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>2208.18029</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>33.476</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1229.60539</v>
+        <v>1027.85609</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1927.06605</v>
+        <v>537.59118</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1281.80602</v>
+        <v>398.4707</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>14809.91336</v>
+        <v>13971.54294</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2638.06824</v>
+        <v>2563.20105</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2128.12599</v>
+        <v>2098.97333</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>8346.146490000001</v>
+        <v>8242.85219</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>878.46005</v>
+        <v>2731.74778</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>2333.33274</v>
+        <v>1950.72131</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5932.13009</v>
+        <v>5876.122020000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3633.08698</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3487.1652</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3834.085</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>12358.99494</v>
+        <v>11583.56826</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>14471.14249</v>
+        <v>12631.20393</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>114618.67181</v>
+        <v>80143.70612</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>28898.30808</v>
+        <v>22241.10057</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>50679.29652</v>
+        <v>50057.68123</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>52895.21891</v>
+        <v>51892.01092</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>89480.38531999999</v>
+        <v>87437.96851999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>45141.61762999999</v>
+        <v>47259.99287</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>86351.10227000002</v>
+        <v>57735.23278</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>110840.32879</v>
+        <v>109428.47988</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>153013.4646</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>128245.65859</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>123850.354</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>108031.15814</v>
+        <v>83723.14375999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>171156.70793</v>
+        <v>131335.42873</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>81491.29795000001</v>
+        <v>72182.38828</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>205122.94212</v>
+        <v>147954.59896</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>195191.39759</v>
+        <v>170049.72574</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>259911.69938</v>
+        <v>170691.30747</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>194178.17687</v>
+        <v>105528.48777</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>70059.22674999999</v>
+        <v>233519.24818</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>335549.8038</v>
+        <v>304721.01672</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-119217.9367</v>
+        <v>-62627.01627000001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-301382.79683</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-292727.46622</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>617904.845</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>18854.49886</v>
+        <v>16697.56691</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>25892.66027</v>
+        <v>21901.19078</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>33517.48524</v>
+        <v>25649.11816</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>33506.21799</v>
+        <v>26605.5636</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>30989.80411</v>
+        <v>28858.05618</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>37090.5269</v>
+        <v>29163.98548</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>41837.4127</v>
+        <v>34664.28707999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>21193.24064</v>
+        <v>32787.62302</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>53959.66656</v>
+        <v>47432.51503</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>63740.75878999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>64879.5747</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>60066.14771</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>69841.41499999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>89176.65927999999</v>
+        <v>67025.57685</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>145264.04766</v>
+        <v>109434.23795</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>47973.81270999999</v>
+        <v>46533.27011999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>171616.72413</v>
+        <v>121349.03536</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>164201.59348</v>
+        <v>141191.66956</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>222821.17248</v>
+        <v>141527.32199</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>152340.76417</v>
+        <v>70864.20069</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>48865.98610999999</v>
+        <v>200731.62516</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>281590.13724</v>
+        <v>257288.50169</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-182958.69549</v>
+        <v>-126367.77506</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-366262.37153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-352793.6139299999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>548063.4300000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>175</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>